--- a/data_group/contrast_PF_SF_evapo.xlsx
+++ b/data_group/contrast_PF_SF_evapo.xlsx
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>-100.4997819433839</v>
+        <v>-102.0427635221984</v>
       </c>
       <c r="E2">
-        <v>7.766173620499619</v>
+        <v>6.953184440353621</v>
       </c>
       <c r="F2">
-        <v>702.1952635806499</v>
+        <v>701.9345782231576</v>
       </c>
       <c r="G2">
-        <v>12.94070759351868</v>
+        <v>14.67568772230192</v>
       </c>
       <c r="H2">
-        <v>3.320689272222814E-34</v>
+        <v>6.027756606967542E-42</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -452,7 +452,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>-106.9788197736376</v>
+        <v>-101.2800245948897</v>
       </c>
       <c r="E3">
-        <v>6.923422117954498</v>
+        <v>6.953184440353621</v>
       </c>
       <c r="F3">
-        <v>702.0001141181403</v>
+        <v>701.9345782323891</v>
       </c>
       <c r="G3">
-        <v>15.45172574357551</v>
+        <v>14.56599137613828</v>
       </c>
       <c r="H3">
-        <v>8.446203026077486E-46</v>
+        <v>1.036406607551581E-41</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>-106.216080846323</v>
+        <v>-95.82419048025268</v>
       </c>
       <c r="E4">
-        <v>6.923422117954483</v>
+        <v>7.799457325440187</v>
       </c>
       <c r="F4">
-        <v>702.0001141181403</v>
+        <v>702.1267987820755</v>
       </c>
       <c r="G4">
-        <v>15.3415578360986</v>
+        <v>12.2860074081942</v>
       </c>
       <c r="H4">
-        <v>1.508767626733845E-45</v>
+        <v>2.905679539643708E-31</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="D5">
-        <v>-61.35095956209194</v>
+        <v>-72.88533224381757</v>
       </c>
       <c r="E5">
-        <v>7.766173620499647</v>
+        <v>6.953184440353622</v>
       </c>
       <c r="F5">
-        <v>702.1952635808303</v>
+        <v>701.9345782447261</v>
       </c>
       <c r="G5">
-        <v>7.899766675335394</v>
+        <v>10.48229525177255</v>
       </c>
       <c r="H5">
-        <v>2.159568325426749E-14</v>
+        <v>3.313719688136415E-23</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>-72.36611383390493</v>
+        <v>-68.43640071884569</v>
       </c>
       <c r="E6">
-        <v>6.923422117954511</v>
+        <v>6.953184440353622</v>
       </c>
       <c r="F6">
-        <v>702.0001141183567</v>
+        <v>701.9345782476233</v>
       </c>
       <c r="G6">
-        <v>10.45236193908181</v>
+        <v>9.842454389914785</v>
       </c>
       <c r="H6">
-        <v>4.354372152207947E-23</v>
+        <v>5.059341731040739E-21</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -666,19 +666,19 @@
         </is>
       </c>
       <c r="D7">
-        <v>-67.91718230893279</v>
+        <v>-62.13064276030224</v>
       </c>
       <c r="E7">
-        <v>6.923422117954511</v>
+        <v>7.799457325440187</v>
       </c>
       <c r="F7">
-        <v>702.0001141183567</v>
+        <v>702.1267987914194</v>
       </c>
       <c r="G7">
-        <v>9.809770537145663</v>
+        <v>7.966021245817343</v>
       </c>
       <c r="H7">
-        <v>6.727149294912798E-21</v>
+        <v>1.323470145429818E-14</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -699,7 +699,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -713,19 +713,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>-46.32656984291737</v>
+        <v>-51.24079465329632</v>
       </c>
       <c r="E8">
-        <v>7.766173620499646</v>
+        <v>6.953184440353628</v>
       </c>
       <c r="F8">
-        <v>702.1952635808303</v>
+        <v>701.9345782418534</v>
       </c>
       <c r="G8">
-        <v>5.965173083516114</v>
+        <v>7.369399602851654</v>
       </c>
       <c r="H8">
-        <v>7.746362893813296E-09</v>
+        <v>2.898419497417998E-12</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>-49.90799975405897</v>
+        <v>-50.41504175750357</v>
       </c>
       <c r="E9">
-        <v>6.923422117954511</v>
+        <v>6.953184440353628</v>
       </c>
       <c r="F9">
-        <v>702.0001141183567</v>
+        <v>701.9345782457523</v>
       </c>
       <c r="G9">
-        <v>7.208573867630077</v>
+        <v>7.250640651053914</v>
       </c>
       <c r="H9">
-        <v>8.789842955093992E-12</v>
+        <v>3.294560042315392E-12</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -793,7 +793,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -807,19 +807,19 @@
         </is>
       </c>
       <c r="D10">
-        <v>-49.0822468582658</v>
+        <v>-47.91982953045231</v>
       </c>
       <c r="E10">
-        <v>6.923422117954511</v>
+        <v>7.799457325440192</v>
       </c>
       <c r="F10">
-        <v>702.0001141183567</v>
+        <v>702.126798797882</v>
       </c>
       <c r="G10">
-        <v>7.089304396301477</v>
+        <v>6.143995348772266</v>
       </c>
       <c r="H10">
-        <v>9.876815821576597E-12</v>
+        <v>2.69570074189083E-09</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -854,19 +854,19 @@
         </is>
       </c>
       <c r="D11">
-        <v>-37.35785942977059</v>
+        <v>-46.59660287670987</v>
       </c>
       <c r="E11">
-        <v>7.766173620499646</v>
+        <v>6.953184440353623</v>
       </c>
       <c r="F11">
-        <v>702.1952635808303</v>
+        <v>701.934578235106</v>
       </c>
       <c r="G11">
-        <v>4.810330190296098</v>
+        <v>6.701476607794409</v>
       </c>
       <c r="H11">
-        <v>3.690010525050427E-06</v>
+        <v>2.542758083457521E-10</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -887,7 +887,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="D12">
-        <v>-45.31812707230245</v>
+        <v>-42.76493124125388</v>
       </c>
       <c r="E12">
-        <v>6.923422117954511</v>
+        <v>6.953184440353623</v>
       </c>
       <c r="F12">
-        <v>702.0001141183567</v>
+        <v>701.9345782358981</v>
       </c>
       <c r="G12">
-        <v>6.545625313640626</v>
+        <v>6.15040944305498</v>
       </c>
       <c r="H12">
-        <v>6.861525591541989E-10</v>
+        <v>3.891925578846139E-09</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -934,7 +934,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -948,19 +948,19 @@
         </is>
       </c>
       <c r="D13">
-        <v>-41.48645543684674</v>
+        <v>-38.89680002247533</v>
       </c>
       <c r="E13">
-        <v>6.92342211795451</v>
+        <v>7.799457325440187</v>
       </c>
       <c r="F13">
-        <v>702.0001141183567</v>
+        <v>702.1267987887554</v>
       </c>
       <c r="G13">
-        <v>5.992189228107286</v>
+        <v>4.987116205585504</v>
       </c>
       <c r="H13">
-        <v>9.924837619715872E-09</v>
+        <v>1.546309177929931E-06</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="D14">
-        <v>-33.15801709861317</v>
+        <v>-41.79990706953793</v>
       </c>
       <c r="E14">
-        <v>7.766173620499643</v>
+        <v>6.953184440353628</v>
       </c>
       <c r="F14">
-        <v>702.1952635808303</v>
+        <v>701.9345782567642</v>
       </c>
       <c r="G14">
-        <v>4.2695436284207</v>
+        <v>6.011620636286768</v>
       </c>
       <c r="H14">
-        <v>4.456269574919062E-05</v>
+        <v>8.857188456165532E-09</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1042,19 +1042,19 @@
         </is>
       </c>
       <c r="D15">
-        <v>-41.30758120558755</v>
+        <v>-43.7902223968178</v>
       </c>
       <c r="E15">
-        <v>6.923422117954509</v>
+        <v>6.953184440353628</v>
       </c>
       <c r="F15">
-        <v>702.0001141183567</v>
+        <v>701.9345782500733</v>
       </c>
       <c r="G15">
-        <v>5.966353127373906</v>
+        <v>6.297865786886951</v>
       </c>
       <c r="H15">
-        <v>1.154132213674372E-08</v>
+        <v>3.192826462596526E-09</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1075,7 +1075,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1089,19 +1089,19 @@
         </is>
       </c>
       <c r="D16">
-        <v>-43.29789653286758</v>
+        <v>-33.91080775086081</v>
       </c>
       <c r="E16">
-        <v>6.92342211795451</v>
+        <v>7.799457325440192</v>
       </c>
       <c r="F16">
-        <v>702.0001141183567</v>
+        <v>702.1267988014837</v>
       </c>
       <c r="G16">
-        <v>6.253828785129704</v>
+        <v>4.347841950522747</v>
       </c>
       <c r="H16">
-        <v>4.173978053892269E-09</v>
+        <v>3.156668575899521E-05</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1122,7 +1122,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1136,19 +1136,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>-35.57568759504777</v>
+        <v>-37.68305794507737</v>
       </c>
       <c r="E17">
-        <v>7.766173620499648</v>
+        <v>6.953184440353628</v>
       </c>
       <c r="F17">
-        <v>702.1952635807942</v>
+        <v>701.9345782571612</v>
       </c>
       <c r="G17">
-        <v>4.580851437719848</v>
+        <v>5.419539531610767</v>
       </c>
       <c r="H17">
-        <v>1.095805156271081E-05</v>
+        <v>4.93306688634032E-07</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1169,7 +1169,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1183,19 +1183,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>-37.6830579450753</v>
+        <v>-34.69070832018841</v>
       </c>
       <c r="E18">
-        <v>6.923422117954511</v>
+        <v>6.953184440353628</v>
       </c>
       <c r="F18">
-        <v>702.0001141183567</v>
+        <v>701.9345782501357</v>
       </c>
       <c r="G18">
-        <v>5.442836981924275</v>
+        <v>4.989182815122347</v>
       </c>
       <c r="H18">
-        <v>4.351999518304745E-07</v>
+        <v>2.295774930251301E-06</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="D19">
-        <v>-34.69070832018599</v>
+        <v>-35.83615238334784</v>
       </c>
       <c r="E19">
-        <v>6.923422117954509</v>
+        <v>7.799457325440192</v>
       </c>
       <c r="F19">
-        <v>702.0001141183567</v>
+        <v>702.1267988016209</v>
       </c>
       <c r="G19">
-        <v>5.010630253241758</v>
+        <v>4.594698180661601</v>
       </c>
       <c r="H19">
-        <v>2.061942122271491E-06</v>
+        <v>1.027504774732521E-05</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1277,19 +1277,19 @@
         </is>
       </c>
       <c r="D20">
-        <v>-36.70369295616583</v>
+        <v>-42.4932535811984</v>
       </c>
       <c r="E20">
-        <v>7.766173620499643</v>
+        <v>6.953184440353624</v>
       </c>
       <c r="F20">
-        <v>702.1952635808303</v>
+        <v>701.9345782354312</v>
       </c>
       <c r="G20">
-        <v>4.726097400048142</v>
+        <v>6.111337034953913</v>
       </c>
       <c r="H20">
-        <v>8.297541185262364E-06</v>
+        <v>9.827379349249398E-09</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1310,7 +1310,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="D21">
-        <v>-42.49325358119947</v>
+        <v>-27.34377104764952</v>
       </c>
       <c r="E21">
-        <v>6.923422117954508</v>
+        <v>6.953184440353624</v>
       </c>
       <c r="F21">
-        <v>702.0001141183567</v>
+        <v>701.9345782359809</v>
       </c>
       <c r="G21">
-        <v>6.137608375921747</v>
+        <v>3.9325536784206</v>
       </c>
       <c r="H21">
-        <v>8.402424205740935E-09</v>
+        <v>0.0001847774559236687</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1371,19 +1371,19 @@
         </is>
       </c>
       <c r="D22">
-        <v>-27.34377104765018</v>
+        <v>-36.9641577444625</v>
       </c>
       <c r="E22">
-        <v>6.923422117954509</v>
+        <v>7.799457325440188</v>
       </c>
       <c r="F22">
-        <v>702.0001141183567</v>
+        <v>702.1267987887343</v>
       </c>
       <c r="G22">
-        <v>3.9494588921192</v>
+        <v>4.739324314769081</v>
       </c>
       <c r="H22">
-        <v>0.0001724647934539106</v>
+        <v>7.789771977778753E-06</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1418,19 +1418,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>-31.93680977912781</v>
+        <v>-32.88813749057149</v>
       </c>
       <c r="E23">
-        <v>7.766173620499645</v>
+        <v>6.953184440353626</v>
       </c>
       <c r="F23">
-        <v>702.1952635808303</v>
+        <v>701.9345782423754</v>
       </c>
       <c r="G23">
-        <v>4.112296652089672</v>
+        <v>4.729938889539778</v>
       </c>
       <c r="H23">
-        <v>8.762245982861077E-05</v>
+        <v>8.147399442195583E-06</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1451,7 +1451,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1465,19 +1465,19 @@
         </is>
       </c>
       <c r="D24">
-        <v>-32.88813749057209</v>
+        <v>-46.37344083397095</v>
       </c>
       <c r="E24">
-        <v>6.923422117954508</v>
+        <v>6.953184440353626</v>
       </c>
       <c r="F24">
-        <v>702.0001141183567</v>
+        <v>701.9345782457856</v>
       </c>
       <c r="G24">
-        <v>4.750271893040192</v>
+        <v>6.669381667029745</v>
       </c>
       <c r="H24">
-        <v>7.392379567945301E-06</v>
+        <v>3.124558176626637E-10</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1512,19 +1512,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>-46.37344083397104</v>
+        <v>-32.19727456742472</v>
       </c>
       <c r="E25">
-        <v>6.923422117954509</v>
+        <v>7.79945732544019</v>
       </c>
       <c r="F25">
-        <v>702.0001141183567</v>
+        <v>702.1267987978356</v>
       </c>
       <c r="G25">
-        <v>6.698051923442716</v>
+        <v>4.128142923790862</v>
       </c>
       <c r="H25">
-        <v>2.599217387508325E-10</v>
+        <v>8.193295992316824E-05</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>-31.19676429483448</v>
+        <v>-38.7168869824663</v>
       </c>
       <c r="E26">
-        <v>7.766173620499647</v>
+        <v>7.13851633883742</v>
       </c>
       <c r="F26">
-        <v>702.1952635808303</v>
+        <v>701.9657367178758</v>
       </c>
       <c r="G26">
-        <v>4.017005776498131</v>
+        <v>5.423660203987393</v>
       </c>
       <c r="H26">
-        <v>0.0001305996746647553</v>
+        <v>4.825041580571785E-07</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1592,7 +1592,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="D27">
-        <v>-38.71710304095261</v>
+        <v>-28.77912219197598</v>
       </c>
       <c r="E27">
-        <v>7.107975749325532</v>
+        <v>6.953184440353619</v>
       </c>
       <c r="F27">
-        <v>702.031753097545</v>
+        <v>701.9345782471441</v>
       </c>
       <c r="G27">
-        <v>5.446994250736777</v>
+        <v>4.138984437828656</v>
       </c>
       <c r="H27">
-        <v>4.255508220531821E-07</v>
+        <v>0.0001173698167381637</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1639,7 +1639,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1653,19 +1653,19 @@
         </is>
       </c>
       <c r="D28">
-        <v>-28.77912219197586</v>
+        <v>-31.45722908313214</v>
       </c>
       <c r="E28">
-        <v>6.923422117954509</v>
+        <v>7.799457325440184</v>
       </c>
       <c r="F28">
-        <v>702.0001141183567</v>
+        <v>702.1267987910715</v>
       </c>
       <c r="G28">
-        <v>4.15677705355318</v>
+        <v>4.033258696156373</v>
       </c>
       <c r="H28">
-        <v>0.0001087977089331853</v>
+        <v>0.0001220760904727966</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1686,7 +1686,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1700,19 +1700,19 @@
         </is>
       </c>
       <c r="D29">
-        <v>16.4162824023239</v>
+        <v>-36.56172930516323</v>
       </c>
       <c r="E29">
-        <v>7.766173620499646</v>
+        <v>7.634030368392398</v>
       </c>
       <c r="F29">
-        <v>702.1952635808303</v>
+        <v>702.0452006700153</v>
       </c>
       <c r="G29">
-        <v>-2.113818619634174</v>
+        <v>4.789308863184746</v>
       </c>
       <c r="H29">
-        <v>0.04185932524010729</v>
+        <v>6.127297602689334E-06</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1733,7 +1733,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="D30">
-        <v>-36.64947115668454</v>
+        <v>-7.239769947704185</v>
       </c>
       <c r="E30">
-        <v>7.601410804659861</v>
+        <v>6.95318444035362</v>
       </c>
       <c r="F30">
-        <v>702.1124371430162</v>
+        <v>701.9345782329418</v>
       </c>
       <c r="G30">
-        <v>4.821403828644213</v>
+        <v>1.041216439720386</v>
       </c>
       <c r="H30">
-        <v>5.24582786551384E-06</v>
+        <v>0.2981335955914861</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1768,19 +1768,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1794,19 +1789,19 @@
         </is>
       </c>
       <c r="D31">
-        <v>-7.239769947705469</v>
+        <v>16.15581761402759</v>
       </c>
       <c r="E31">
-        <v>6.923422117954511</v>
+        <v>7.799457325440186</v>
       </c>
       <c r="F31">
-        <v>702.0001141183567</v>
+        <v>702.1267987825964</v>
       </c>
       <c r="G31">
-        <v>1.045692408228378</v>
+        <v>-2.071402783541198</v>
       </c>
       <c r="H31">
-        <v>0.2960629927542385</v>
+        <v>0.0464230421027701</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1815,14 +1810,19 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="D32">
-        <v>-7.414216141010044</v>
+        <v>-14.28887082458152</v>
       </c>
       <c r="E32">
-        <v>6.115519521400309</v>
+        <v>5.591043280319656</v>
       </c>
       <c r="F32">
-        <v>710.1230472139525</v>
+        <v>710.0121662369107</v>
       </c>
       <c r="G32">
-        <v>1.212360800266461</v>
+        <v>2.555671653424328</v>
       </c>
       <c r="H32">
-        <v>0.4326509004000638</v>
+        <v>0.03241653636100154</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1857,14 +1857,19 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1878,19 +1883,19 @@
         </is>
       </c>
       <c r="D33">
-        <v>-13.00944791751833</v>
+        <v>-14.3556882526671</v>
       </c>
       <c r="E33">
-        <v>5.451933078690246</v>
+        <v>5.591043280319656</v>
       </c>
       <c r="F33">
-        <v>710.0000490989089</v>
+        <v>710.0121662385244</v>
       </c>
       <c r="G33">
-        <v>2.386208291581539</v>
+        <v>2.567622451287185</v>
       </c>
       <c r="H33">
-        <v>0.0518524272348142</v>
+        <v>0.03241653636100154</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1899,14 +1904,19 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1920,19 +1930,19 @@
         </is>
       </c>
       <c r="D34">
-        <v>-13.07626534560275</v>
+        <v>-8.966441685806727</v>
       </c>
       <c r="E34">
-        <v>5.451933078690247</v>
+        <v>6.271480876673278</v>
       </c>
       <c r="F34">
-        <v>710.0000490989459</v>
+        <v>710.1462987643866</v>
       </c>
       <c r="G34">
-        <v>2.39846402310282</v>
+        <v>1.42971681842439</v>
       </c>
       <c r="H34">
-        <v>0.0518524272348142</v>
+        <v>0.3064761715641445</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1941,14 +1951,14 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1962,19 +1972,19 @@
         </is>
       </c>
       <c r="D35">
-        <v>-2.614758203177767</v>
+        <v>-17.68083458565447</v>
       </c>
       <c r="E35">
-        <v>6.115519521400341</v>
+        <v>5.591043280319653</v>
       </c>
       <c r="F35">
-        <v>710.1230472139156</v>
+        <v>710.0121662368178</v>
       </c>
       <c r="G35">
-        <v>0.4275610917482667</v>
+        <v>3.162349797557571</v>
       </c>
       <c r="H35">
-        <v>0.6691003187278151</v>
+        <v>0.009789841985211691</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1983,14 +1993,19 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2004,19 +2019,19 @@
         </is>
       </c>
       <c r="D36">
-        <v>-12.76432165428284</v>
+        <v>-13.20695006295286</v>
       </c>
       <c r="E36">
-        <v>5.451933078690266</v>
+        <v>5.591043280319653</v>
       </c>
       <c r="F36">
-        <v>710.0000490988721</v>
+        <v>710.0121662381783</v>
       </c>
       <c r="G36">
-        <v>2.341246943065789</v>
+        <v>2.3621620153507</v>
       </c>
       <c r="H36">
-        <v>0.1169709623695261</v>
+        <v>0.05531271876624237</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2025,14 +2040,14 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2046,19 +2061,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>-8.290437131581726</v>
+        <v>-7.804073772272538</v>
       </c>
       <c r="E37">
-        <v>5.451933078690267</v>
+        <v>6.271480876673275</v>
       </c>
       <c r="F37">
-        <v>710.0000490988721</v>
+        <v>710.1462987640696</v>
       </c>
       <c r="G37">
-        <v>1.52064176355836</v>
+        <v>1.244374961151477</v>
       </c>
       <c r="H37">
-        <v>0.2575899089687902</v>
+        <v>0.3206581974532823</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2067,14 +2082,14 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2088,19 +2103,19 @@
         </is>
       </c>
       <c r="D38">
-        <v>-11.88346741117727</v>
+        <v>-20.8698690530465</v>
       </c>
       <c r="E38">
-        <v>6.115519521400342</v>
+        <v>5.591043280319661</v>
       </c>
       <c r="F38">
-        <v>710.1230472139156</v>
+        <v>710.0121662355565</v>
       </c>
       <c r="G38">
-        <v>1.943165641053529</v>
+        <v>3.732732516399568</v>
       </c>
       <c r="H38">
-        <v>0.1047819328156523</v>
+        <v>0.001227414544106152</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2109,14 +2124,19 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2130,19 +2150,19 @@
         </is>
       </c>
       <c r="D39">
-        <v>-19.25960693852968</v>
+        <v>-17.06564720633364</v>
       </c>
       <c r="E39">
-        <v>5.451933078690266</v>
+        <v>5.591043280319661</v>
       </c>
       <c r="F39">
-        <v>710.0000490988721</v>
+        <v>710.0121662379312</v>
       </c>
       <c r="G39">
-        <v>3.532619836037399</v>
+        <v>3.052318923447492</v>
       </c>
       <c r="H39">
-        <v>0.002628540872654564</v>
+        <v>0.007066615364349586</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2151,7 +2171,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2163,7 +2183,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2177,19 +2197,19 @@
         </is>
       </c>
       <c r="D40">
-        <v>-15.45538509181707</v>
+        <v>-13.76653216341754</v>
       </c>
       <c r="E40">
-        <v>5.451933078690266</v>
+        <v>6.271480876673282</v>
       </c>
       <c r="F40">
-        <v>710.0000490988721</v>
+        <v>710.1462987633364</v>
       </c>
       <c r="G40">
-        <v>2.834844974936847</v>
+        <v>2.195100716103917</v>
       </c>
       <c r="H40">
-        <v>0.01414537626637006</v>
+        <v>0.05695861731522315</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2198,19 +2218,14 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2224,19 +2239,19 @@
         </is>
       </c>
       <c r="D41">
-        <v>-23.87015176527086</v>
+        <v>-29.57657834632282</v>
       </c>
       <c r="E41">
-        <v>6.115519521400339</v>
+        <v>5.591043280319656</v>
       </c>
       <c r="F41">
-        <v>710.1230472139156</v>
+        <v>710.0121662354414</v>
       </c>
       <c r="G41">
-        <v>3.903209152017398</v>
+        <v>5.289992737210906</v>
       </c>
       <c r="H41">
-        <v>0.0002079275136421116</v>
+        <v>9.786403940246711E-07</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2245,7 +2260,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2257,7 +2272,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2271,19 +2286,19 @@
         </is>
       </c>
       <c r="D42">
-        <v>-32.43368179033359</v>
+        <v>-23.48561395568678</v>
       </c>
       <c r="E42">
-        <v>5.451933078690263</v>
+        <v>5.591043280319656</v>
       </c>
       <c r="F42">
-        <v>710.0000490988721</v>
+        <v>710.012166237755</v>
       </c>
       <c r="G42">
-        <v>5.949024194208424</v>
+        <v>4.200578099324612</v>
       </c>
       <c r="H42">
-        <v>2.540641900581882E-08</v>
+        <v>9.004232524126318E-05</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2292,7 +2307,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2304,7 +2319,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2318,19 +2333,19 @@
         </is>
       </c>
       <c r="D43">
-        <v>-26.34271739969738</v>
+        <v>-21.28585095898412</v>
       </c>
       <c r="E43">
-        <v>5.451933078690266</v>
+        <v>6.271480876673277</v>
       </c>
       <c r="F43">
-        <v>710.0000490988721</v>
+        <v>710.1462987620827</v>
       </c>
       <c r="G43">
-        <v>4.831812316747249</v>
+        <v>3.394070934371605</v>
       </c>
       <c r="H43">
-        <v>4.976045217204061E-06</v>
+        <v>0.001453741012123786</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2339,7 +2354,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2351,7 +2366,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2365,19 +2380,19 @@
         </is>
       </c>
       <c r="D44">
-        <v>-36.44238801692455</v>
+        <v>-42.04959814478947</v>
       </c>
       <c r="E44">
-        <v>6.11551952140034</v>
+        <v>5.591043280319659</v>
       </c>
       <c r="F44">
-        <v>710.1230472139156</v>
+        <v>710.0121662348915</v>
       </c>
       <c r="G44">
-        <v>5.959001175517453</v>
+        <v>7.520885823367361</v>
       </c>
       <c r="H44">
-        <v>7.990254141034345E-09</v>
+        <v>9.886461841561594E-13</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2386,7 +2401,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2398,7 +2413,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2412,19 +2427,19 @@
         </is>
       </c>
       <c r="D45">
-        <v>-44.78653336291769</v>
+        <v>-38.78688950101418</v>
       </c>
       <c r="E45">
-        <v>5.451933078690266</v>
+        <v>5.591043280319659</v>
       </c>
       <c r="F45">
-        <v>710.0000490988721</v>
+        <v>710.012166238207</v>
       </c>
       <c r="G45">
-        <v>8.214798809246735</v>
+        <v>6.937325925832683</v>
       </c>
       <c r="H45">
-        <v>6.030044416571381E-15</v>
+        <v>2.702693789221058E-11</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2433,7 +2448,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2445,7 +2460,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2459,19 +2474,19 @@
         </is>
       </c>
       <c r="D46">
-        <v>-41.52382471914239</v>
+        <v>-33.97825543651972</v>
       </c>
       <c r="E46">
-        <v>5.451933078690266</v>
+        <v>6.27148087667328</v>
       </c>
       <c r="F46">
-        <v>710.0000490988721</v>
+        <v>710.1462987640235</v>
       </c>
       <c r="G46">
-        <v>7.616348938956121</v>
+        <v>5.417899871607926</v>
       </c>
       <c r="H46">
-        <v>2.504755489357598E-13</v>
+        <v>1.65294715704233E-07</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2480,7 +2495,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2492,7 +2507,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2506,19 +2521,19 @@
         </is>
       </c>
       <c r="D47">
-        <v>-55.26143763731913</v>
+        <v>-64.02097331651854</v>
       </c>
       <c r="E47">
-        <v>6.11551952140034</v>
+        <v>5.591043280319661</v>
       </c>
       <c r="F47">
-        <v>710.1230472139156</v>
+        <v>710.0121662348915</v>
       </c>
       <c r="G47">
-        <v>9.036262159566338</v>
+        <v>11.45063096575747</v>
       </c>
       <c r="H47">
-        <v>3.032462858220477E-18</v>
+        <v>3.367644185924714E-27</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2527,7 +2542,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2539,7 +2554,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2553,19 +2568,19 @@
         </is>
       </c>
       <c r="D48">
-        <v>-64.02097331651945</v>
+        <v>-58.92360617815198</v>
       </c>
       <c r="E48">
-        <v>5.451933078690265</v>
+        <v>5.591043280319661</v>
       </c>
       <c r="F48">
-        <v>710.0000490988721</v>
+        <v>710.0121662382071</v>
       </c>
       <c r="G48">
-        <v>11.74280248720503</v>
+        <v>10.53892864424099</v>
       </c>
       <c r="H48">
-        <v>1.910682224392147E-28</v>
+        <v>9.45720722735241E-24</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2574,7 +2589,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2586,7 +2601,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2600,19 +2615,19 @@
         </is>
       </c>
       <c r="D49">
-        <v>-58.92360617815285</v>
+        <v>-55.53424027504195</v>
       </c>
       <c r="E49">
-        <v>5.451933078690265</v>
+        <v>6.271480876673282</v>
       </c>
       <c r="F49">
-        <v>710.0000490988721</v>
+        <v>710.1462987639807</v>
       </c>
       <c r="G49">
-        <v>10.80783739045972</v>
+        <v>8.855044186071119</v>
       </c>
       <c r="H49">
-        <v>7.805766411978736E-25</v>
+        <v>1.324949079287971E-17</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2621,7 +2636,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2633,7 +2648,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2647,19 +2662,19 @@
         </is>
       </c>
       <c r="D50">
-        <v>-66.55324831860983</v>
+        <v>-79.94666625533587</v>
       </c>
       <c r="E50">
-        <v>6.115519521400336</v>
+        <v>5.591043280319655</v>
       </c>
       <c r="F50">
-        <v>710.1230472139156</v>
+        <v>710.0121662354413</v>
       </c>
       <c r="G50">
-        <v>10.88268103563676</v>
+        <v>14.29906052359607</v>
       </c>
       <c r="H50">
-        <v>2.576781362632811E-25</v>
+        <v>3.631830957764914E-40</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2668,7 +2683,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2680,7 +2695,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2694,19 +2709,19 @@
         </is>
       </c>
       <c r="D51">
-        <v>-79.94666625534369</v>
+        <v>-68.880702776234</v>
       </c>
       <c r="E51">
-        <v>5.451933078690265</v>
+        <v>5.591043280319655</v>
       </c>
       <c r="F51">
-        <v>710.0000490988721</v>
+        <v>710.0121662377549</v>
       </c>
       <c r="G51">
-        <v>14.66391188252617</v>
+        <v>12.31983000716387</v>
       </c>
       <c r="H51">
-        <v>6.032430143766381E-42</v>
+        <v>2.876238797272437E-31</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2715,7 +2730,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2727,7 +2742,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2741,19 +2756,19 @@
         </is>
       </c>
       <c r="D52">
-        <v>-68.88070277624175</v>
+        <v>-66.82605095632542</v>
       </c>
       <c r="E52">
-        <v>5.451933078690264</v>
+        <v>6.271480876673277</v>
       </c>
       <c r="F52">
-        <v>710.0000490988721</v>
+        <v>710.1462987620417</v>
       </c>
       <c r="G52">
-        <v>12.63417980045881</v>
+        <v>10.65554567899336</v>
       </c>
       <c r="H52">
-        <v>1.129839001468292E-32</v>
+        <v>2.14736182394343E-24</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2762,7 +2777,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2774,7 +2789,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2788,19 +2803,19 @@
         </is>
       </c>
       <c r="D53">
-        <v>-70.91011481148053</v>
+        <v>-97.5164523744553</v>
       </c>
       <c r="E53">
-        <v>6.115519521400339</v>
+        <v>5.591043280319658</v>
       </c>
       <c r="F53">
-        <v>710.1230472139156</v>
+        <v>710.0121662355562</v>
       </c>
       <c r="G53">
-        <v>11.59510889685517</v>
+        <v>17.44154847051729</v>
       </c>
       <c r="H53">
-        <v>2.730517711508755E-28</v>
+        <v>3.43479602914894E-56</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2809,7 +2824,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2821,7 +2836,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2835,19 +2850,19 @@
         </is>
       </c>
       <c r="D54">
-        <v>-97.51645237445133</v>
+        <v>-79.69135353071216</v>
       </c>
       <c r="E54">
-        <v>5.451933078690267</v>
+        <v>5.591043280319658</v>
       </c>
       <c r="F54">
-        <v>710.0000490988721</v>
+        <v>710.0121662379312</v>
       </c>
       <c r="G54">
-        <v>17.88658278943475</v>
+        <v>14.25339592902524</v>
       </c>
       <c r="H54">
-        <v>1.434968393269044E-58</v>
+        <v>3.020929389887681E-40</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2856,7 +2871,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2868,7 +2883,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2882,19 +2897,19 @@
         </is>
       </c>
       <c r="D55">
-        <v>-79.69135353070827</v>
+        <v>-71.18291744920803</v>
       </c>
       <c r="E55">
-        <v>5.451933078690266</v>
+        <v>6.27148087667328</v>
       </c>
       <c r="F55">
-        <v>710.0000490988721</v>
+        <v>710.1462987633685</v>
       </c>
       <c r="G55">
-        <v>14.61708212123777</v>
+        <v>11.35025663778587</v>
       </c>
       <c r="H55">
-        <v>5.119498680182092E-42</v>
+        <v>2.972094561007589E-27</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2903,7 +2918,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2915,7 +2930,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2929,19 +2944,19 @@
         </is>
       </c>
       <c r="D56">
-        <v>-73.91369204367696</v>
+        <v>-99.34819672778532</v>
       </c>
       <c r="E56">
-        <v>6.115519521400339</v>
+        <v>5.591043280319655</v>
       </c>
       <c r="F56">
-        <v>710.1230472139156</v>
+        <v>710.0121662368178</v>
       </c>
       <c r="G56">
-        <v>12.08624905619664</v>
+        <v>17.76916967849072</v>
       </c>
       <c r="H56">
-        <v>2.052936070560275E-30</v>
+        <v>6.117952960540615E-58</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2950,7 +2965,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2962,7 +2977,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2976,19 +2991,19 @@
         </is>
       </c>
       <c r="D57">
-        <v>-99.34819672778721</v>
+        <v>-96.25001433684217</v>
       </c>
       <c r="E57">
-        <v>5.451933078690266</v>
+        <v>5.591043280319656</v>
       </c>
       <c r="F57">
-        <v>710.0000490988721</v>
+        <v>710.0121662381781</v>
       </c>
       <c r="G57">
-        <v>18.22256350066093</v>
+        <v>17.21503653453015</v>
       </c>
       <c r="H57">
-        <v>2.217573702798347E-60</v>
+        <v>2.73405856661156E-55</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2997,7 +3012,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3009,7 +3024,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3023,19 +3038,19 @@
         </is>
       </c>
       <c r="D58">
-        <v>-96.2500143368443</v>
+        <v>-74.18649468139854</v>
       </c>
       <c r="E58">
-        <v>5.451933078690266</v>
+        <v>6.271480876673277</v>
       </c>
       <c r="F58">
-        <v>710.0000490988721</v>
+        <v>710.1462987641065</v>
       </c>
       <c r="G58">
-        <v>17.65429122984883</v>
+        <v>11.82918295379559</v>
       </c>
       <c r="H58">
-        <v>1.260487782709634E-57</v>
+        <v>2.698743580911204E-29</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3044,7 +3059,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3056,7 +3071,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3070,19 +3085,19 @@
         </is>
       </c>
       <c r="D59">
-        <v>-78.86073838832849</v>
+        <v>-120.6130645549569</v>
       </c>
       <c r="E59">
-        <v>6.115519521400339</v>
+        <v>5.591043280319655</v>
       </c>
       <c r="F59">
-        <v>710.1230472139156</v>
+        <v>710.0121662369108</v>
       </c>
       <c r="G59">
-        <v>12.89518218564542</v>
+        <v>21.57255068647243</v>
       </c>
       <c r="H59">
-        <v>4.925326185089569E-34</v>
+        <v>5.47475789286638E-79</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3091,7 +3106,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3103,7 +3118,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3117,19 +3132,19 @@
         </is>
       </c>
       <c r="D60">
-        <v>-120.6130645549622</v>
+        <v>-97.82589170026748</v>
       </c>
       <c r="E60">
-        <v>5.451933078690267</v>
+        <v>5.591043280319655</v>
       </c>
       <c r="F60">
-        <v>710.0000490988351</v>
+        <v>710.0121662385244</v>
       </c>
       <c r="G60">
-        <v>22.12299065562584</v>
+        <v>17.49689401343259</v>
       </c>
       <c r="H60">
-        <v>4.065505174391885E-82</v>
+        <v>8.714587754699361E-57</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3138,7 +3153,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3150,7 +3165,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3164,19 +3179,19 @@
         </is>
       </c>
       <c r="D61">
-        <v>-97.82589170027303</v>
+        <v>-79.13354102604652</v>
       </c>
       <c r="E61">
-        <v>5.451933078690267</v>
+        <v>6.271480876673277</v>
       </c>
       <c r="F61">
-        <v>710.0000490988721</v>
+        <v>710.1462987642573</v>
       </c>
       <c r="G61">
-        <v>17.94334051579628</v>
+        <v>12.61799925443177</v>
       </c>
       <c r="H61">
-        <v>3.554278247160319E-59</v>
+        <v>8.896372859110196E-33</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3185,7 +3200,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3197,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3211,19 +3226,19 @@
         </is>
       </c>
       <c r="D62">
-        <v>-30.75222113545436</v>
+        <v>13.96056616200975</v>
       </c>
       <c r="E62">
-        <v>8.571490348447291</v>
+        <v>7.808558695844055</v>
       </c>
       <c r="F62">
-        <v>710.0561283396465</v>
+        <v>709.9665023179817</v>
       </c>
       <c r="G62">
-        <v>3.587733274532014</v>
+        <v>-1.787854417927341</v>
       </c>
       <c r="H62">
-        <v>0.0007129381413565526</v>
+        <v>0.1881688199873937</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3232,19 +3247,14 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3258,19 +3268,19 @@
         </is>
       </c>
       <c r="D63">
-        <v>-32.95026133317997</v>
+        <v>14.32579574659691</v>
       </c>
       <c r="E63">
-        <v>7.641266051286319</v>
+        <v>7.808558695844055</v>
       </c>
       <c r="F63">
-        <v>710.0000101695191</v>
+        <v>709.9665023175622</v>
       </c>
       <c r="G63">
-        <v>4.312146850014884</v>
+        <v>-1.834627401113283</v>
       </c>
       <c r="H63">
-        <v>6.828268713742765E-05</v>
+        <v>0.1881688199873937</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3279,19 +3289,14 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3305,19 +3310,19 @@
         </is>
       </c>
       <c r="D64">
-        <v>-32.58503174859911</v>
+        <v>14.68444097838499</v>
       </c>
       <c r="E64">
-        <v>7.641266051286326</v>
+        <v>8.759091211443806</v>
       </c>
       <c r="F64">
-        <v>710.0000101695191</v>
+        <v>710.0297987321383</v>
       </c>
       <c r="G64">
-        <v>4.264349851176005</v>
+        <v>-1.67647997079876</v>
       </c>
       <c r="H64">
-        <v>6.828268713742765E-05</v>
+        <v>0.1881688199873937</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3326,19 +3331,14 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3352,19 +3352,19 @@
         </is>
       </c>
       <c r="D65">
-        <v>-17.30997587567747</v>
+        <v>-9.745207481897586</v>
       </c>
       <c r="E65">
-        <v>8.571490348447275</v>
+        <v>7.80855869584405</v>
       </c>
       <c r="F65">
-        <v>710.0561283396465</v>
+        <v>709.9665023187569</v>
       </c>
       <c r="G65">
-        <v>2.019482630440478</v>
+        <v>1.248016165529277</v>
       </c>
       <c r="H65">
-        <v>0.06571843163775941</v>
+        <v>0.46805498243021</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3373,14 +3373,14 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3394,19 +3394,19 @@
         </is>
       </c>
       <c r="D66">
-        <v>-35.3900593964505</v>
+        <v>-3.571904734405129</v>
       </c>
       <c r="E66">
-        <v>7.641266051286334</v>
+        <v>7.80855869584405</v>
       </c>
       <c r="F66">
-        <v>710.0000101694823</v>
+        <v>709.9665023184532</v>
       </c>
       <c r="G66">
-        <v>4.631439235189687</v>
+        <v>0.4574345757695596</v>
       </c>
       <c r="H66">
-        <v>2.591455442741367E-05</v>
+        <v>0.6474986621402026</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3415,19 +3415,14 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3441,19 +3436,19 @@
         </is>
       </c>
       <c r="D67">
-        <v>-29.2167566489573</v>
+        <v>6.860710657531904</v>
       </c>
       <c r="E67">
-        <v>7.641266051286333</v>
+        <v>8.759091211443801</v>
       </c>
       <c r="F67">
-        <v>710.0000101694823</v>
+        <v>710.0297987320553</v>
       </c>
       <c r="G67">
-        <v>3.823549193662605</v>
+        <v>-0.7832674066195757</v>
       </c>
       <c r="H67">
-        <v>0.0004293028048936803</v>
+        <v>0.5204775321473439</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3462,19 +3457,14 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3488,19 +3478,19 @@
         </is>
       </c>
       <c r="D68">
-        <v>-21.39101932833534</v>
+        <v>-9.093692408418613</v>
       </c>
       <c r="E68">
-        <v>8.571490348447275</v>
+        <v>7.808558695844061</v>
       </c>
       <c r="F68">
-        <v>710.0561283396465</v>
+        <v>709.9665023178005</v>
       </c>
       <c r="G68">
-        <v>2.495600935047464</v>
+        <v>1.16458014374132</v>
       </c>
       <c r="H68">
-        <v>0.02560053084761952</v>
+        <v>0.6728517211507835</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3509,19 +3499,14 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3535,19 +3520,19 @@
         </is>
       </c>
       <c r="D69">
-        <v>-24.3761558449828</v>
+        <v>-13.63875691290087</v>
       </c>
       <c r="E69">
-        <v>7.641266051286334</v>
+        <v>7.808558695844061</v>
       </c>
       <c r="F69">
-        <v>710.0000101694823</v>
+        <v>709.9665023174197</v>
       </c>
       <c r="G69">
-        <v>3.190067677447156</v>
+        <v>1.746642042936785</v>
       </c>
       <c r="H69">
-        <v>0.004454877934394212</v>
+        <v>0.4867913577538425</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3556,19 +3541,14 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>SF_early</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3582,19 +3562,19 @@
         </is>
       </c>
       <c r="D70">
-        <v>-28.92122034946391</v>
+        <v>-7.582721273115352</v>
       </c>
       <c r="E70">
-        <v>7.641266051286332</v>
+        <v>8.759091211443812</v>
       </c>
       <c r="F70">
-        <v>710.0000101694823</v>
+        <v>710.0297987318293</v>
       </c>
       <c r="G70">
-        <v>3.784872841143295</v>
+        <v>0.865697261287618</v>
       </c>
       <c r="H70">
-        <v>0.001000639956808745</v>
+        <v>0.6728517211507835</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3603,19 +3583,14 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3629,19 +3604,19 @@
         </is>
       </c>
       <c r="D71">
-        <v>-16.84521916067377</v>
+        <v>-2.101004394857745</v>
       </c>
       <c r="E71">
-        <v>8.571490348447274</v>
+        <v>7.808558695844056</v>
       </c>
       <c r="F71">
-        <v>710.0561283396465</v>
+        <v>709.96650231839</v>
       </c>
       <c r="G71">
-        <v>1.965261404479711</v>
+        <v>0.2690643019659904</v>
       </c>
       <c r="H71">
-        <v>0.1493202031684209</v>
+        <v>0.7879583727567683</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3650,14 +3625,14 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3671,19 +3646,19 @@
         </is>
       </c>
       <c r="D72">
-        <v>-11.60821702290302</v>
+        <v>-12.9188234340038</v>
       </c>
       <c r="E72">
-        <v>7.641266051286333</v>
+        <v>7.808558695844055</v>
       </c>
       <c r="F72">
-        <v>710.0000101694823</v>
+        <v>709.9665023182499</v>
       </c>
       <c r="G72">
-        <v>1.51914839046193</v>
+        <v>1.654444044952825</v>
       </c>
       <c r="H72">
-        <v>0.2359482661126764</v>
+        <v>0.4991143898054624</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3692,14 +3667,14 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3713,19 +3688,19 @@
         </is>
       </c>
       <c r="D73">
-        <v>-22.42603606204806</v>
+        <v>-8.812171913972321</v>
       </c>
       <c r="E73">
-        <v>7.641266051286331</v>
+        <v>8.759091211443804</v>
       </c>
       <c r="F73">
-        <v>710.0000101694823</v>
+        <v>710.029798731883</v>
       </c>
       <c r="G73">
-        <v>2.934858688537989</v>
+        <v>1.00606006961763</v>
       </c>
       <c r="H73">
-        <v>0.02066826695932108</v>
+        <v>0.6294588047685638</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3734,19 +3709,14 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3760,19 +3730,19 @@
         </is>
       </c>
       <c r="D74">
-        <v>-23.33096635154499</v>
+        <v>-15.18325148320844</v>
       </c>
       <c r="E74">
-        <v>8.571490348447275</v>
+        <v>7.808558695844058</v>
       </c>
       <c r="F74">
-        <v>710.0561283396465</v>
+        <v>709.9665023177274</v>
       </c>
       <c r="G74">
-        <v>2.72192645655506</v>
+        <v>1.944437132974285</v>
       </c>
       <c r="H74">
-        <v>0.01330914215664112</v>
+        <v>0.1044747150889134</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3781,19 +3751,14 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3807,19 +3772,19 @@
         </is>
       </c>
       <c r="D75">
-        <v>-20.7969850342137</v>
+        <v>-22.15122452098918</v>
       </c>
       <c r="E75">
-        <v>7.641266051286332</v>
+        <v>7.808558695844058</v>
       </c>
       <c r="F75">
-        <v>710.0000101694823</v>
+        <v>709.9665023177213</v>
       </c>
       <c r="G75">
-        <v>2.721667442885689</v>
+        <v>2.836787861091279</v>
       </c>
       <c r="H75">
-        <v>0.01330914215664112</v>
+        <v>0.02812116475047447</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3828,7 +3793,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -3840,7 +3805,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3854,19 +3819,19 @@
         </is>
       </c>
       <c r="D76">
-        <v>-27.76495807199351</v>
+        <v>-19.19139818188389</v>
       </c>
       <c r="E76">
-        <v>7.641266051286332</v>
+        <v>8.759091211443808</v>
       </c>
       <c r="F76">
-        <v>710.0000101694823</v>
+        <v>710.0297987318488</v>
       </c>
       <c r="G76">
-        <v>3.633554686571808</v>
+        <v>2.191026182808806</v>
       </c>
       <c r="H76">
-        <v>0.001798197440069651</v>
+        <v>0.08632252265765811</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3875,19 +3840,14 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3901,19 +3861,19 @@
         </is>
       </c>
       <c r="D77">
-        <v>-34.62377501937185</v>
+        <v>-19.3992862574041</v>
       </c>
       <c r="E77">
-        <v>8.571490348447275</v>
+        <v>7.808558695844061</v>
       </c>
       <c r="F77">
-        <v>710.0561283396465</v>
+        <v>709.9665023177273</v>
       </c>
       <c r="G77">
-        <v>4.039411305601475</v>
+        <v>2.484361969095392</v>
       </c>
       <c r="H77">
-        <v>0.0001782780515554972</v>
+        <v>0.01981174670961707</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3922,7 +3882,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -3934,7 +3894,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3948,19 +3908,19 @@
         </is>
       </c>
       <c r="D78">
-        <v>-19.39928625739852</v>
+        <v>-42.41194560587466</v>
       </c>
       <c r="E78">
-        <v>7.641266051286333</v>
+        <v>7.808558695844061</v>
       </c>
       <c r="F78">
-        <v>710.0000101694823</v>
+        <v>709.9665023177213</v>
       </c>
       <c r="G78">
-        <v>2.538752888224961</v>
+        <v>5.431469142755821</v>
       </c>
       <c r="H78">
-        <v>0.01700587155152904</v>
+        <v>4.610401534660611E-07</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3969,7 +3929,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -3981,7 +3941,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3995,19 +3955,19 @@
         </is>
       </c>
       <c r="D79">
-        <v>-42.41194560586853</v>
+        <v>-36.09794040072105</v>
       </c>
       <c r="E79">
-        <v>7.641266051286332</v>
+        <v>8.75909121144381</v>
       </c>
       <c r="F79">
-        <v>710.0000101694823</v>
+        <v>710.0297987317699</v>
       </c>
       <c r="G79">
-        <v>5.550382007537729</v>
+        <v>4.121196997418962</v>
       </c>
       <c r="H79">
-        <v>2.416753788927155E-07</v>
+        <v>0.0001264175145939954</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4016,7 +3976,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4028,7 +3988,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4042,19 +4002,19 @@
         </is>
       </c>
       <c r="D80">
-        <v>-23.77365800731952</v>
+        <v>-18.10934698962698</v>
       </c>
       <c r="E80">
-        <v>8.571490348447275</v>
+        <v>7.808558695844054</v>
       </c>
       <c r="F80">
-        <v>710.0561283396465</v>
+        <v>709.9665023183898</v>
       </c>
       <c r="G80">
-        <v>2.773573444159115</v>
+        <v>2.319166403816022</v>
       </c>
       <c r="H80">
-        <v>0.01706992100760036</v>
+        <v>0.03100343229182026</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4063,7 +4023,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4075,7 +4035,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4089,19 +4049,19 @@
         </is>
       </c>
       <c r="D81">
-        <v>-18.10934698963178</v>
+        <v>-36.69600119877753</v>
       </c>
       <c r="E81">
-        <v>7.641266051286334</v>
+        <v>7.808558695844054</v>
       </c>
       <c r="F81">
-        <v>710.0000101694823</v>
+        <v>709.9665023182501</v>
       </c>
       <c r="G81">
-        <v>2.369940644401885</v>
+        <v>4.699458969080712</v>
       </c>
       <c r="H81">
-        <v>0.02708591968194764</v>
+        <v>1.880021643943613E-05</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4110,7 +4070,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4122,7 +4082,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4136,19 +4096,19 @@
         </is>
       </c>
       <c r="D82">
-        <v>-36.69600119878198</v>
+        <v>-25.24782338865833</v>
       </c>
       <c r="E82">
-        <v>7.641266051286334</v>
+        <v>8.759091211443804</v>
       </c>
       <c r="F82">
-        <v>710.0000101694823</v>
+        <v>710.0297987316259</v>
       </c>
       <c r="G82">
-        <v>4.802345704558285</v>
+        <v>2.882470655822364</v>
       </c>
       <c r="H82">
-        <v>1.148128209175883E-05</v>
+        <v>0.01219472145364635</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4157,7 +4117,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4169,7 +4129,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4183,19 +4143,19 @@
         </is>
       </c>
       <c r="D83">
-        <v>-20.83983067201694</v>
+        <v>-15.93251924321577</v>
       </c>
       <c r="E83">
-        <v>8.571490348447272</v>
+        <v>7.808558695844058</v>
       </c>
       <c r="F83">
-        <v>710.0561283396465</v>
+        <v>709.9665023178007</v>
       </c>
       <c r="G83">
-        <v>2.431296055276091</v>
+        <v>2.04039181413793</v>
       </c>
       <c r="H83">
-        <v>0.04587393694393881</v>
+        <v>0.0833616048338869</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4204,19 +4164,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4230,19 +4185,19 @@
         </is>
       </c>
       <c r="D84">
-        <v>-15.93251924320963</v>
+        <v>-25.98888176588903</v>
       </c>
       <c r="E84">
-        <v>7.641266051286332</v>
+        <v>7.808558695844058</v>
       </c>
       <c r="F84">
-        <v>710.0000101694453</v>
+        <v>709.9665023174193</v>
       </c>
       <c r="G84">
-        <v>2.085062754820262</v>
+        <v>3.328255927655519</v>
       </c>
       <c r="H84">
-        <v>0.07484055485816828</v>
+        <v>0.00551402004811902</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4251,14 +4206,19 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4272,19 +4232,19 @@
         </is>
       </c>
       <c r="D85">
-        <v>-25.98888176588206</v>
+        <v>-22.31399605336683</v>
       </c>
       <c r="E85">
-        <v>7.641266051286335</v>
+        <v>8.759091211443808</v>
       </c>
       <c r="F85">
-        <v>710.0000101694823</v>
+        <v>710.0297987317177</v>
       </c>
       <c r="G85">
-        <v>3.401122483035004</v>
+        <v>2.547524111201565</v>
       </c>
       <c r="H85">
-        <v>0.004252073102281973</v>
+        <v>0.03317620294391571</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4293,7 +4253,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4305,7 +4265,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4319,19 +4279,19 @@
         </is>
       </c>
       <c r="D86">
-        <v>-3.164967478693452</v>
+        <v>-13.18999411756846</v>
       </c>
       <c r="E86">
-        <v>8.571490348447277</v>
+        <v>7.808558695844055</v>
       </c>
       <c r="F86">
-        <v>710.0561283396465</v>
+        <v>709.9665023187572</v>
       </c>
       <c r="G86">
-        <v>0.3692435445916106</v>
+        <v>1.689171411951934</v>
       </c>
       <c r="H86">
-        <v>0.7120562838942562</v>
+        <v>0.1610769555778289</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4340,14 +4300,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4361,19 +4321,19 @@
         </is>
       </c>
       <c r="D87">
-        <v>-13.18999411756645</v>
+        <v>-25.7781700747353</v>
       </c>
       <c r="E87">
-        <v>7.641266051286334</v>
+        <v>7.808558695844054</v>
       </c>
       <c r="F87">
-        <v>710.0000101694453</v>
+        <v>709.966502318453</v>
       </c>
       <c r="G87">
-        <v>1.726152973740004</v>
+        <v>3.301271217754335</v>
       </c>
       <c r="H87">
-        <v>0.1498793209336928</v>
+        <v>0.006063794260631016</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4382,14 +4342,19 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4403,19 +4368,19 @@
         </is>
       </c>
       <c r="D88">
-        <v>-25.77817007473312</v>
+        <v>-4.63913286003937</v>
       </c>
       <c r="E88">
-        <v>7.641266051286334</v>
+        <v>8.759091211443804</v>
       </c>
       <c r="F88">
-        <v>710.0000101694823</v>
+        <v>710.0297987314395</v>
       </c>
       <c r="G88">
-        <v>3.373546988380755</v>
+        <v>0.5296363227703709</v>
       </c>
       <c r="H88">
-        <v>0.004694135470622871</v>
+        <v>0.5965296654075449</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4424,19 +4389,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4450,19 +4410,19 @@
         </is>
       </c>
       <c r="D89">
-        <v>-6.590637630783547</v>
+        <v>0.2245775773964786</v>
       </c>
       <c r="E89">
-        <v>8.571490348447275</v>
+        <v>7.808558695844054</v>
       </c>
       <c r="F89">
-        <v>710.0561283396465</v>
+        <v>709.9665023179815</v>
       </c>
       <c r="G89">
-        <v>0.7689021818682256</v>
+        <v>-0.02876043917246924</v>
       </c>
       <c r="H89">
-        <v>0.5306484638179156</v>
+        <v>0.9770637351884492</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4471,14 +4431,14 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>SF_advanced</t>
+          <t>SF_early</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4492,19 +4452,19 @@
         </is>
       </c>
       <c r="D90">
-        <v>0.2245775773967154</v>
+        <v>-31.35836647597246</v>
       </c>
       <c r="E90">
-        <v>7.641266051286329</v>
+        <v>7.808558695844054</v>
       </c>
       <c r="F90">
-        <v>710.0000101694823</v>
+        <v>709.9665023175621</v>
       </c>
       <c r="G90">
-        <v>-0.02939010052645792</v>
+        <v>4.015896876418731</v>
       </c>
       <c r="H90">
-        <v>0.9765617271468208</v>
+        <v>0.0001965850210583635</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4513,14 +4473,19 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>SF_early</t>
+          <t>SF_intermediate</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
+          <t>SF_advanced</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4534,19 +4499,19 @@
         </is>
       </c>
       <c r="D91">
-        <v>-31.35836647597158</v>
+        <v>-8.064803012127845</v>
       </c>
       <c r="E91">
-        <v>7.641266051286333</v>
+        <v>8.759091211443804</v>
       </c>
       <c r="F91">
-        <v>710.0000101694823</v>
+        <v>710.0297987313298</v>
       </c>
       <c r="G91">
-        <v>4.103818171688015</v>
+        <v>0.9207351330685005</v>
       </c>
       <c r="H91">
-        <v>0.0001360654678729906</v>
+        <v>0.4290017343017434</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4555,12 +4520,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>SF_intermediate</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>SF_advanced</t>
         </is>
       </c>
     </row>
